--- a/biology/Botanique/Altia_Oyj/Altia_Oyj.xlsx
+++ b/biology/Botanique/Altia_Oyj/Altia_Oyj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Altia est une société de commercialisation de boissons alcoolisées cotée en bourse d'Helsinki en Finlande.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Altia fabrique, commercialise, importe et exporte ses propres boissons alcoolisées dans les pays nordiques et baltes et fabrique de l'éthanol, de l'amidon d'orge et des aliments pour l'industrie.
 </t>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2013, le groupe Altia acquiert du groupe Rémy Cointreau les « cognacs Larsen ».
 </t>
@@ -574,17 +590,14 @@
           <t>Distilleries</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Altia possède des distilleries:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Altia possède des distilleries:
 Koskenkorva (fi) à Ilmajoki,
 Rajamäki (en) à Nurmijärvi,
-Tabasalu près de Tallinn.
-Produits
-Les produits les plus connus d'Altia sont entre autres en Finlande les vodkas Koskenkorva, Finlandia, Sisuviina et Jaloviina.
-En Suède Explorer Vodka, O.P. Anderson, Grönstedts Cognac, le glög Blossa et les vins Chill Out.
-Au Danemark, le plus connu est le bitter 1 Enkelt, en Estonie la Vodka Saaremaa, le Cognac Renault et Xanté-premium[1].
-</t>
+Tabasalu près de Tallinn.</t>
         </is>
       </c>
     </row>
@@ -609,12 +622,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distilleries</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits les plus connus d'Altia sont entre autres en Finlande les vodkas Koskenkorva, Finlandia, Sisuviina et Jaloviina.
+En Suède Explorer Vodka, O.P. Anderson, Grönstedts Cognac, le glög Blossa et les vins Chill Out.
+Au Danemark, le plus connu est le bitter 1 Enkelt, en Estonie la Vodka Saaremaa, le Cognac Renault et Xanté-premium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Altia_Oyj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altia_Oyj</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au 30 septembre 2019, les cinq principaux actionnaires d'Altia étaient les suivants[2]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Au 30 septembre 2019, les cinq principaux actionnaires d'Altia étaient les suivants:
 Valtion kehitysyhtiö Vake Oy, 36,24 %
 Keskinäinen työeläkevakuutusyhtiö Varma, 4,29 %
 Keskinäinen Eläkevakuutusyhtiö Ilmarinen, 2,69 %
